--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntn1-Unc5c.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntn1-Unc5c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.524029</v>
+        <v>2.8328235</v>
       </c>
       <c r="H2">
-        <v>3.048058</v>
+        <v>5.665647</v>
       </c>
       <c r="I2">
-        <v>0.09030204154573296</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J2">
-        <v>0.06866669168778029</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -567,22 +567,22 @@
         <v>0.525076</v>
       </c>
       <c r="O2">
-        <v>0.655128508251241</v>
+        <v>0.5233773787173727</v>
       </c>
       <c r="P2">
-        <v>0.7402223729081171</v>
+        <v>0.6034960927847256</v>
       </c>
       <c r="Q2">
-        <v>0.2667436837346667</v>
+        <v>0.495815877362</v>
       </c>
       <c r="R2">
-        <v>1.600462102408</v>
+        <v>2.974895264172</v>
       </c>
       <c r="S2">
-        <v>0.05915944176989762</v>
+        <v>0.08443197891079258</v>
       </c>
       <c r="T2">
-        <v>0.05082862146087881</v>
+        <v>0.07743894009800101</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.524029</v>
+        <v>2.8328235</v>
       </c>
       <c r="H3">
-        <v>3.048058</v>
+        <v>5.665647</v>
       </c>
       <c r="I3">
-        <v>0.09030204154573296</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J3">
-        <v>0.06866669168778029</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,33 +623,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0921365</v>
+        <v>0.1331885</v>
       </c>
       <c r="N3">
-        <v>0.184273</v>
+        <v>0.266377</v>
       </c>
       <c r="O3">
-        <v>0.344871491748759</v>
+        <v>0.3982729052858947</v>
       </c>
       <c r="P3">
-        <v>0.2597776270918828</v>
+        <v>0.3061604009852228</v>
       </c>
       <c r="Q3">
-        <v>0.1404186979585</v>
+        <v>0.37729951272975</v>
       </c>
       <c r="R3">
-        <v>0.561674791834</v>
+        <v>1.509198050919</v>
       </c>
       <c r="S3">
-        <v>0.03114259977583534</v>
+        <v>0.06424994833029943</v>
       </c>
       <c r="T3">
-        <v>0.01783807022690148</v>
+        <v>0.0392856511180957</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.502875000000001</v>
+        <v>2.8328235</v>
       </c>
       <c r="H4">
-        <v>25.508625</v>
+        <v>5.665647</v>
       </c>
       <c r="I4">
-        <v>0.5038138851085998</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J4">
-        <v>0.5746586476550658</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1750253333333333</v>
+        <v>0.02620133333333333</v>
       </c>
       <c r="N4">
-        <v>0.525076</v>
+        <v>0.07860399999999999</v>
       </c>
       <c r="O4">
-        <v>0.655128508251241</v>
+        <v>0.07834971599673259</v>
       </c>
       <c r="P4">
-        <v>0.7402223729081171</v>
+        <v>0.09034350623005159</v>
       </c>
       <c r="Q4">
-        <v>1.488218531166667</v>
+        <v>0.07422375279799999</v>
       </c>
       <c r="R4">
-        <v>13.3939667805</v>
+        <v>0.445342516788</v>
       </c>
       <c r="S4">
-        <v>0.3300628389874591</v>
+        <v>0.01263948698912908</v>
       </c>
       <c r="T4">
-        <v>0.4253751877794024</v>
+        <v>0.01159262744338586</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,45 +735,45 @@
         <v>25.508625</v>
       </c>
       <c r="I5">
-        <v>0.5038138851085998</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J5">
-        <v>0.5746586476550658</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0921365</v>
+        <v>0.1750253333333333</v>
       </c>
       <c r="N5">
-        <v>0.184273</v>
+        <v>0.525076</v>
       </c>
       <c r="O5">
-        <v>0.344871491748759</v>
+        <v>0.5233773787173727</v>
       </c>
       <c r="P5">
-        <v>0.2597776270918828</v>
+        <v>0.6034960927847256</v>
       </c>
       <c r="Q5">
-        <v>0.7834251424375001</v>
+        <v>1.488218531166667</v>
       </c>
       <c r="R5">
-        <v>4.700550854625</v>
+        <v>13.3939667805</v>
       </c>
       <c r="S5">
-        <v>0.1737510461211407</v>
+        <v>0.253427212348777</v>
       </c>
       <c r="T5">
-        <v>0.1492834598756634</v>
+        <v>0.3486558346041275</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,51 +791,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3890603333333333</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H6">
-        <v>1.167181</v>
+        <v>25.508625</v>
       </c>
       <c r="I6">
-        <v>0.02305267313447669</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J6">
-        <v>0.02629426929239374</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1750253333333333</v>
+        <v>0.1331885</v>
       </c>
       <c r="N6">
-        <v>0.525076</v>
+        <v>0.266377</v>
       </c>
       <c r="O6">
-        <v>0.655128508251241</v>
+        <v>0.3982729052858947</v>
       </c>
       <c r="P6">
-        <v>0.7402223729081171</v>
+        <v>0.3061604009852228</v>
       </c>
       <c r="Q6">
-        <v>0.06809541452844445</v>
+        <v>1.1324851669375</v>
       </c>
       <c r="R6">
-        <v>0.6128587307559999</v>
+        <v>6.794911001625001</v>
       </c>
       <c r="S6">
-        <v>0.01510246336179318</v>
+        <v>0.1928497414007597</v>
       </c>
       <c r="T6">
-        <v>0.01946360640950073</v>
+        <v>0.1768770525682828</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,51 +853,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3890603333333333</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H7">
-        <v>1.167181</v>
+        <v>25.508625</v>
       </c>
       <c r="I7">
-        <v>0.02305267313447669</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J7">
-        <v>0.02629426929239374</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.0921365</v>
+        <v>0.02620133333333333</v>
       </c>
       <c r="N7">
-        <v>0.184273</v>
+        <v>0.07860399999999999</v>
       </c>
       <c r="O7">
-        <v>0.344871491748759</v>
+        <v>0.07834971599673259</v>
       </c>
       <c r="P7">
-        <v>0.2597776270918828</v>
+        <v>0.09034350623005159</v>
       </c>
       <c r="Q7">
-        <v>0.03584665740216667</v>
+        <v>0.2227866621666667</v>
       </c>
       <c r="R7">
-        <v>0.215079944413</v>
+        <v>2.0050799595</v>
       </c>
       <c r="S7">
-        <v>0.007950209772683518</v>
+        <v>0.03793811295786375</v>
       </c>
       <c r="T7">
-        <v>0.006830662882893007</v>
+        <v>0.05219385998069392</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -912,19 +912,19 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>4.717841</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H8">
-        <v>9.435682</v>
+        <v>0.546386</v>
       </c>
       <c r="I8">
-        <v>0.2795423669681891</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J8">
-        <v>0.2125671712145694</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -939,27 +939,27 @@
         <v>0.525076</v>
       </c>
       <c r="O8">
-        <v>0.655128508251241</v>
+        <v>0.5233773787173727</v>
       </c>
       <c r="P8">
-        <v>0.7402223729081171</v>
+        <v>0.6034960927847256</v>
       </c>
       <c r="Q8">
-        <v>0.8257416936386667</v>
+        <v>0.03187713059288889</v>
       </c>
       <c r="R8">
-        <v>4.954450161832</v>
+        <v>0.286894175336</v>
       </c>
       <c r="S8">
-        <v>0.1831361738648907</v>
+        <v>0.005428323982433349</v>
       </c>
       <c r="T8">
-        <v>0.1573469758788146</v>
+        <v>0.007468088415036514</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -974,19 +974,19 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>4.717841</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H9">
-        <v>9.435682</v>
+        <v>0.546386</v>
       </c>
       <c r="I9">
-        <v>0.2795423669681891</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J9">
-        <v>0.2125671712145694</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,95 +995,95 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0921365</v>
+        <v>0.1331885</v>
       </c>
       <c r="N9">
-        <v>0.184273</v>
+        <v>0.266377</v>
       </c>
       <c r="O9">
-        <v>0.344871491748759</v>
+        <v>0.3982729052858947</v>
       </c>
       <c r="P9">
-        <v>0.2597776270918828</v>
+        <v>0.3061604009852228</v>
       </c>
       <c r="Q9">
-        <v>0.4346853572965</v>
+        <v>0.02425744392033334</v>
       </c>
       <c r="R9">
-        <v>1.738741429186</v>
+        <v>0.145544663522</v>
       </c>
       <c r="S9">
-        <v>0.0964061931032984</v>
+        <v>0.004130775328148635</v>
       </c>
       <c r="T9">
-        <v>0.05522019533575483</v>
+        <v>0.003788645810762979</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.295005</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H10">
-        <v>3.885015</v>
+        <v>0.546386</v>
       </c>
       <c r="I10">
-        <v>0.07673187013628475</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J10">
-        <v>0.08752167025935914</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1750253333333333</v>
+        <v>0.02620133333333333</v>
       </c>
       <c r="N10">
-        <v>0.525076</v>
+        <v>0.07860399999999999</v>
       </c>
       <c r="O10">
-        <v>0.655128508251241</v>
+        <v>0.07834971599673259</v>
       </c>
       <c r="P10">
-        <v>0.7402223729081171</v>
+        <v>0.09034350623005159</v>
       </c>
       <c r="Q10">
-        <v>0.2266586817933333</v>
+        <v>0.004772013904888889</v>
       </c>
       <c r="R10">
-        <v>2.03992813614</v>
+        <v>0.042948125144</v>
       </c>
       <c r="S10">
-        <v>0.05026923561771218</v>
+        <v>0.0008126213696973217</v>
       </c>
       <c r="T10">
-        <v>0.0647854984402646</v>
+        <v>0.001117974582299572</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.6940955</v>
+      </c>
+      <c r="H11">
+        <v>11.388191</v>
+      </c>
+      <c r="I11">
+        <v>0.3242628913597822</v>
+      </c>
+      <c r="J11">
+        <v>0.257923057098854</v>
+      </c>
+      <c r="K11">
         <v>3</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.295005</v>
-      </c>
-      <c r="H11">
-        <v>3.885015</v>
-      </c>
-      <c r="I11">
-        <v>0.07673187013628475</v>
-      </c>
-      <c r="J11">
-        <v>0.08752167025935914</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.0921365</v>
+        <v>0.1750253333333333</v>
       </c>
       <c r="N11">
-        <v>0.184273</v>
+        <v>0.525076</v>
       </c>
       <c r="O11">
-        <v>0.344871491748759</v>
+        <v>0.5233773787173727</v>
       </c>
       <c r="P11">
-        <v>0.2597776270918828</v>
+        <v>0.6034960927847256</v>
       </c>
       <c r="Q11">
-        <v>0.1193172281825</v>
+        <v>0.9966109629193333</v>
       </c>
       <c r="R11">
-        <v>0.715903369095</v>
+        <v>5.979665777515999</v>
       </c>
       <c r="S11">
-        <v>0.02646263451857258</v>
+        <v>0.169711862095199</v>
       </c>
       <c r="T11">
-        <v>0.02273617181909453</v>
+        <v>0.1556555571982501</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,489 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4482056666666667</v>
+        <v>5.6940955</v>
       </c>
       <c r="H12">
-        <v>1.344617</v>
+        <v>11.388191</v>
       </c>
       <c r="I12">
-        <v>0.02655716310671665</v>
+        <v>0.3242628913597822</v>
       </c>
       <c r="J12">
-        <v>0.03029154989083149</v>
+        <v>0.257923057098854</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1750253333333333</v>
+        <v>0.1331885</v>
       </c>
       <c r="N12">
-        <v>0.525076</v>
+        <v>0.266377</v>
       </c>
       <c r="O12">
-        <v>0.655128508251241</v>
+        <v>0.3982729052858947</v>
       </c>
       <c r="P12">
-        <v>0.7402223729081171</v>
+        <v>0.3061604009852228</v>
       </c>
       <c r="Q12">
-        <v>0.07844734621022223</v>
+        <v>0.7583880385017501</v>
       </c>
       <c r="R12">
-        <v>0.7060261158919999</v>
+        <v>3.033552154007</v>
       </c>
       <c r="S12">
-        <v>0.01739835464948817</v>
+        <v>0.1291451238182649</v>
       </c>
       <c r="T12">
-        <v>0.0224224829392559</v>
+        <v>0.07896582658471968</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.6940955</v>
+      </c>
+      <c r="H13">
+        <v>11.388191</v>
+      </c>
+      <c r="I13">
+        <v>0.3242628913597822</v>
+      </c>
+      <c r="J13">
+        <v>0.257923057098854</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.02620133333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.07860399999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.07834971599673259</v>
+      </c>
+      <c r="P13">
+        <v>0.09034350623005159</v>
+      </c>
+      <c r="Q13">
+        <v>0.1491928942273333</v>
+      </c>
+      <c r="R13">
+        <v>0.8951573653639998</v>
+      </c>
+      <c r="S13">
+        <v>0.02540590544631829</v>
+      </c>
+      <c r="T13">
+        <v>0.02330167331588427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.165052</v>
+      </c>
+      <c r="H14">
+        <v>0.495156</v>
+      </c>
+      <c r="I14">
+        <v>0.009399252040067608</v>
+      </c>
+      <c r="J14">
+        <v>0.01121443689000652</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.1750253333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.525076</v>
+      </c>
+      <c r="O14">
+        <v>0.5233773787173727</v>
+      </c>
+      <c r="P14">
+        <v>0.6034960927847256</v>
+      </c>
+      <c r="Q14">
+        <v>0.02888828131733333</v>
+      </c>
+      <c r="R14">
+        <v>0.259994531856</v>
+      </c>
+      <c r="S14">
+        <v>0.004919355894634502</v>
+      </c>
+      <c r="T14">
+        <v>0.006767868845899822</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.165052</v>
+      </c>
+      <c r="H15">
+        <v>0.495156</v>
+      </c>
+      <c r="I15">
+        <v>0.009399252040067608</v>
+      </c>
+      <c r="J15">
+        <v>0.01121443689000652</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.1331885</v>
+      </c>
+      <c r="N15">
+        <v>0.266377</v>
+      </c>
+      <c r="O15">
+        <v>0.3982729052858947</v>
+      </c>
+      <c r="P15">
+        <v>0.3061604009852228</v>
+      </c>
+      <c r="Q15">
+        <v>0.021983028302</v>
+      </c>
+      <c r="R15">
+        <v>0.131898169812</v>
+      </c>
+      <c r="S15">
+        <v>0.003743467417512098</v>
+      </c>
+      <c r="T15">
+        <v>0.00343341649506787</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.165052</v>
+      </c>
+      <c r="H16">
+        <v>0.495156</v>
+      </c>
+      <c r="I16">
+        <v>0.009399252040067608</v>
+      </c>
+      <c r="J16">
+        <v>0.01121443689000652</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.02620133333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.07860399999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.07834971599673259</v>
+      </c>
+      <c r="P16">
+        <v>0.09034350623005159</v>
+      </c>
+      <c r="Q16">
+        <v>0.004324582469333333</v>
+      </c>
+      <c r="R16">
+        <v>0.03892124222399999</v>
+      </c>
+      <c r="S16">
+        <v>0.0007364287279210064</v>
+      </c>
+      <c r="T16">
+        <v>0.001013151549038824</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.183146</v>
+      </c>
+      <c r="H17">
+        <v>0.549438</v>
+      </c>
+      <c r="I17">
+        <v>0.01042965498224936</v>
+      </c>
+      <c r="J17">
+        <v>0.01244383139045351</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.1750253333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.525076</v>
+      </c>
+      <c r="O17">
+        <v>0.5233773787173727</v>
+      </c>
+      <c r="P17">
+        <v>0.6034960927847256</v>
+      </c>
+      <c r="Q17">
+        <v>0.03205518969866667</v>
+      </c>
+      <c r="R17">
+        <v>0.288496707288</v>
+      </c>
+      <c r="S17">
+        <v>0.005458645485536258</v>
+      </c>
+      <c r="T17">
+        <v>0.007509803623410615</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.4482056666666667</v>
-      </c>
-      <c r="H13">
-        <v>1.344617</v>
-      </c>
-      <c r="I13">
-        <v>0.02655716310671665</v>
-      </c>
-      <c r="J13">
-        <v>0.03029154989083149</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.0921365</v>
-      </c>
-      <c r="N13">
-        <v>0.184273</v>
-      </c>
-      <c r="O13">
-        <v>0.344871491748759</v>
-      </c>
-      <c r="P13">
-        <v>0.2597776270918828</v>
-      </c>
-      <c r="Q13">
-        <v>0.04129610140683333</v>
-      </c>
-      <c r="R13">
-        <v>0.247776608441</v>
-      </c>
-      <c r="S13">
-        <v>0.00915880845722848</v>
-      </c>
-      <c r="T13">
-        <v>0.007869066951575588</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.183146</v>
+      </c>
+      <c r="H18">
+        <v>0.549438</v>
+      </c>
+      <c r="I18">
+        <v>0.01042965498224936</v>
+      </c>
+      <c r="J18">
+        <v>0.01244383139045351</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.1331885</v>
+      </c>
+      <c r="N18">
+        <v>0.266377</v>
+      </c>
+      <c r="O18">
+        <v>0.3982729052858947</v>
+      </c>
+      <c r="P18">
+        <v>0.3061604009852228</v>
+      </c>
+      <c r="Q18">
+        <v>0.024392941021</v>
+      </c>
+      <c r="R18">
+        <v>0.146357646126</v>
+      </c>
+      <c r="S18">
+        <v>0.00415384899090996</v>
+      </c>
+      <c r="T18">
+        <v>0.003809808408293751</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.183146</v>
+      </c>
+      <c r="H19">
+        <v>0.549438</v>
+      </c>
+      <c r="I19">
+        <v>0.01042965498224936</v>
+      </c>
+      <c r="J19">
+        <v>0.01244383139045351</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.02620133333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.07860399999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.07834971599673259</v>
+      </c>
+      <c r="P19">
+        <v>0.09034350623005159</v>
+      </c>
+      <c r="Q19">
+        <v>0.004798669394666666</v>
+      </c>
+      <c r="R19">
+        <v>0.04318802455199999</v>
+      </c>
+      <c r="S19">
+        <v>0.0008171605058031446</v>
+      </c>
+      <c r="T19">
+        <v>0.001124219358749149</v>
       </c>
     </row>
   </sheetData>
